--- a/data/trans_bre/P15B_tráfico-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-6.993098495041486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-27.82231651524253</v>
+        <v>-27.82231651524251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4245974838520136</v>
@@ -649,7 +649,7 @@
         <v>-0.2245291672024093</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.6526492098022466</v>
+        <v>-0.6526492098022464</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-29.48240642023657</v>
+        <v>-28.45900282636473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-40.54726917531727</v>
+        <v>-43.41457555004928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-33.48059786418851</v>
+        <v>-33.43156986541967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-50.43309313433273</v>
+        <v>-50.58513315036781</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.7449499912277563</v>
+        <v>-0.7576227640904846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.739751318970557</v>
+        <v>-0.728952437656779</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8641111583028319</v>
+        <v>-0.8639758346212302</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>54.39426732674276</v>
+        <v>55.29266470395918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.614822535071012</v>
+        <v>8.854341856876182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.84237746184401</v>
+        <v>17.01997788700972</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-7.000550476634413</v>
+        <v>-6.321412805748154</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.2209663157709926</v>
+        <v>0.286851816403702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.500737772776927</v>
+        <v>1.088583470049851</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.195583895276731</v>
+        <v>-0.1683238009291007</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>8.796120016788747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-15.39403594627417</v>
+        <v>-15.39403594627418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6112108667167673</v>
@@ -745,7 +745,7 @@
         <v>0.5058255597512487</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4542584388717331</v>
+        <v>-0.4542584388717333</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-82.42993481429191</v>
+        <v>-86.83204006942627</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-40.36270097607662</v>
+        <v>-40.74423018743539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-18.84960219331665</v>
+        <v>-16.95983985979518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-41.6349601152158</v>
+        <v>-47.74440775327077</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9005020798419689</v>
+        <v>-0.8953421486091414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7894333146915412</v>
+        <v>-0.8306377857126371</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7774343668561795</v>
+        <v>-0.723763548619723</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8149010683132305</v>
+        <v>-0.8255327003661806</v>
       </c>
     </row>
     <row r="9">
@@ -788,26 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-3.794655629358452</v>
+        <v>-2.40619400631694</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.249874038762707</v>
+        <v>4.463601889650729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40.54225436521417</v>
+        <v>39.36037880075731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.010870884357489</v>
+        <v>8.051261999003188</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08418473323500479</v>
+        <v>-0.05946992899910299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2482869775353329</v>
-      </c>
-      <c r="I9" s="6" t="inlineStr"/>
+        <v>0.2225174496719762</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.160065778256886</v>
+      </c>
       <c r="J9" s="6" t="n">
-        <v>0.85983351459166</v>
+        <v>0.710955078080192</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +833,7 @@
         <v>-11.6011182946989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.268838155180966</v>
+        <v>5.26883815518097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -843,7 +845,7 @@
         <v>-0.4879839460665119</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.470700265684601</v>
+        <v>0.4707002656846014</v>
       </c>
     </row>
     <row r="11">
@@ -854,26 +856,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-62.38170710127422</v>
+        <v>-61.97614127652186</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.297242092308423</v>
+        <v>-8.067780495677685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.93121153220611</v>
+        <v>-31.69406314415697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.76471466425593</v>
+        <v>-11.44747592994391</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.774178511440489</v>
+        <v>-0.8266803036280704</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7695861693965497</v>
+        <v>-0.7318003165156938</v>
       </c>
     </row>
     <row r="12">
@@ -884,23 +886,23 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-13.28022569699748</v>
+        <v>-14.43615193257422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.93549709356521</v>
+        <v>19.44498654598155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.27024521699336</v>
+        <v>13.93132294015679</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24.65373275239254</v>
+        <v>24.0590938891064</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>6.601498799651708</v>
+        <v>7.584898257550612</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.737186449584254</v>
+        <v>2.0139554501982</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -948,22 +950,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.142262792510516</v>
+        <v>-8.751395019724132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-42.74695506880591</v>
+        <v>-40.31374173291876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-35.0789986167015</v>
+        <v>-36.42026595221417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.36309520221361</v>
+        <v>-18.37464468541292</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.4069701854797708</v>
+        <v>-0.5380764465667747</v>
       </c>
     </row>
     <row r="15">
@@ -974,22 +978,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>63.81357452132774</v>
+        <v>62.0702357508171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.4053074922705799</v>
+        <v>-0.8079909694749554</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-9.074470246026561</v>
+        <v>-7.970926204950479</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>60.86779788589427</v>
+        <v>54.65336532481842</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>1.616468640048408</v>
+      </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>6.308174731119797</v>
+        <v>4.814437569914485</v>
       </c>
     </row>
     <row r="16">
@@ -1036,18 +1042,18 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.78419369742073</v>
+        <v>-25.6515809133679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.67825016044478</v>
+        <v>-19.61240017654678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-53.86460935515923</v>
+        <v>-46.4925819070146</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.407092404072893</v>
+        <v>-0.42656833994233</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="inlineStr"/>
@@ -1060,10 +1066,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>56.06752716918987</v>
+        <v>54.68096095877703</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>51.4355285300219</v>
+        <v>53.47401245896286</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0</v>
@@ -1071,7 +1077,7 @@
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>5.717873108895305</v>
+        <v>6.349715733430225</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
@@ -1097,7 +1103,7 @@
         <v>-3.208514566406237</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-5.589564180373409</v>
+        <v>-5.589564180373408</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
@@ -1119,17 +1125,17 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>-36.94503697293548</v>
+        <v>-37.62010236834845</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-21.86649978435607</v>
+        <v>-21.2823363836478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-21.39068637325925</v>
+        <v>-21.83096354418895</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8854851179503277</v>
+        <v>-0.9002541395964413</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
@@ -1145,21 +1151,21 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>4.414122462722329</v>
+        <v>3.94263729057015</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.20719119439487</v>
+        <v>12.16662449231482</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.918945582571949</v>
+        <v>5.491121113128118</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.4332447699175319</v>
+        <v>0.3756478360891657</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.597479264423856</v>
+        <v>2.418675543329434</v>
       </c>
     </row>
     <row r="22">
@@ -1183,7 +1189,7 @@
         <v>10.70543131018543</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-15.25142118550641</v>
+        <v>-15.2514211855064</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2528225622203233</v>
@@ -1195,7 +1201,7 @@
         <v>0.3761112147418764</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.4323076651590814</v>
+        <v>-0.4323076651590812</v>
       </c>
     </row>
     <row r="23">
@@ -1206,28 +1212,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-31.27245120177379</v>
+        <v>-32.19464863822928</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.408594759323693</v>
+        <v>-8.456456896079576</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.63336676376557</v>
+        <v>-16.65527508083258</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-34.37255052496598</v>
+        <v>-31.76782030050866</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8170525785473177</v>
+        <v>-0.8320360700326399</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4982863782952159</v>
+        <v>-0.4910778233554764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4228854636794501</v>
+        <v>-0.4078231600332128</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.7436060197096643</v>
+        <v>-0.723927992426442</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1244,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.92775547408805</v>
+        <v>18.42278136603291</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.48167850148334</v>
+        <v>17.15616488759684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.63800771264506</v>
+        <v>35.83531399678709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.113823791185228</v>
+        <v>3.655207186510297</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.274579841676474</v>
+        <v>1.233761327821113</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.196414739605634</v>
+        <v>2.163045042426807</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.529274978985129</v>
+        <v>2.475608192484299</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2453088215287924</v>
+        <v>0.186493000509374</v>
       </c>
     </row>
     <row r="25">
@@ -1306,28 +1312,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-55.53411220332791</v>
+        <v>-57.02895681824208</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-49.71040569997772</v>
+        <v>-50.80608021828603</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-22.61315328134036</v>
+        <v>-24.0546265465397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1027292839696175</v>
+        <v>3.060696898390725</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8652392572929414</v>
+        <v>-0.8729693449375679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9022600057403316</v>
+        <v>-0.9117313788960674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.8127394963089891</v>
+        <v>-0.776680935839867</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1251812232025438</v>
+        <v>-0.005696138990117948</v>
       </c>
     </row>
     <row r="27">
@@ -1338,28 +1344,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-8.213564369471053</v>
+        <v>-8.450279784825065</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.06925883520387965</v>
+        <v>1.385808239813327</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.25233259133451</v>
+        <v>17.68068094332923</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40.66009257248314</v>
+        <v>39.44575713307656</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1424956065703036</v>
+        <v>-0.1232551266990282</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1424661717192007</v>
+        <v>0.2049218159878735</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.614705240117776</v>
+        <v>1.626682598586306</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8.645792018046</v>
+        <v>9.396028062235587</v>
       </c>
     </row>
     <row r="28">
@@ -1406,28 +1412,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-22.95680562768316</v>
+        <v>-22.18342706139991</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.35222494218207</v>
+        <v>-14.42642469803253</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.43166097155703</v>
+        <v>-12.49106118649602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.56170248354581</v>
+        <v>-14.16036592101707</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.6222400561055136</v>
+        <v>-0.5904534079824818</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.4841784796467943</v>
+        <v>-0.5066549624547219</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.482512685942515</v>
+        <v>-0.4989027490920829</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.4300610421398882</v>
+        <v>-0.4378441202752041</v>
       </c>
     </row>
     <row r="30">
@@ -1438,28 +1444,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4838002325402367</v>
+        <v>1.056847754322436</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9079403882713897</v>
+        <v>0.1110265370138007</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.076460578741326</v>
+        <v>3.962856373781439</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.298396028797891</v>
+        <v>4.122197207348618</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03639728153271475</v>
+        <v>0.04852899155352208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04595900085238792</v>
+        <v>0.003423781439988957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2561440459144601</v>
+        <v>0.2142698434787036</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1516505562568512</v>
+        <v>0.2005914184849099</v>
       </c>
     </row>
     <row r="31">
